--- a/biology/Zoologie/Diaethria/Diaethria.xlsx
+++ b/biology/Zoologie/Diaethria/Diaethria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaethria est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Eurytelinae.
 Ils résident tous en Amérique, Amérique centrale et Amérique du Sud.
@@ -512,22 +524,24 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon Tree of Life :
-Diaethria anna (Guérin-Méneville, [1844])
-Diaethria astala (Guérin-Méneville, [1844])
+Diaethria anna (Guérin-Méneville, )
+Diaethria astala (Guérin-Méneville, )
 Diaethria bacchis (Doubleday, 1849)
-Diaethria candrena (Godart, [1824])
+Diaethria candrena (Godart, )
 Diaethria ceryx (Hewitson, 1864)
-Diaethria clymena (Cramer, [1775])
+Diaethria clymena (Cramer, )
 Diaethria eluina (Hewitson, 1855)
-Diaethria euclides (Latreille, [1809])
+Diaethria euclides (Latreille, )
 Diaethria gabaza (Hewitson, 1855)
 Diaethria neglecta (Salvin, 1869)
 Diaethria nystographa (Guenée, 1872)
-Diaethria pandama (Doubleday, [1848])
+Diaethria pandama (Doubleday, )
 Diaethria × tertia Strecker, 1899
 Selon Catalogue of life :
 Diaethria adelographa
